--- a/biology/Médecine/Anna_Morandi_Manzolini/Anna_Morandi_Manzolini.xlsx
+++ b/biology/Médecine/Anna_Morandi_Manzolini/Anna_Morandi_Manzolini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna Morandi Manzolini, née en 1714 à Bologne (Italie) et morte en 1774 dans cette même ville, est une anatomiste italienne.
 Elle était également une enseignante, mais aussi une habile sculptrice et a modelé en cire de nombreuses figures anatomiques.
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anna Morandi, de son nom de naissance, est née à Bologne en 1714[1]. En 1740, elle épouse Giovanni Manzolini, anatomiste et professeur d'anatomie à l'université de Bologne[2]. Elle assiste son mari en pratiquant des dissections, apprend l'anatomie et aide son conjoint, un temps assistant d'Ercole Lelli, dans la réalisation de sculptures anatomiques en cire, utilisées notamment dans l'enseignement[2],[3]. Ses réalisations en cire sont remarquées pour leur précision et leurs qualités plastiques[3]. Elle publie un ouvrage sur ses notes anatomiques, et apporte quelques précisions aux connaissances de ses pairs : on lui doit par exemple la détermination du point d'insertion du muscle oblique de l'œil[2]. Elle réalise également des bustes en cire à des fins purement artistiques. Deux de ces bustes sont exposées au Palazzo Poggi de Bologne : l'un est un autoportrait où l'on peut la voir en train de disséquer un cerveau humain ; l'autre représente son mari qui dissèque un cœur[4]. Le portrait d'un homme en cire colorée, qui se trouve actuellement au Victoria and Albert Museum de Londres, est également considéré comme étant à sa manière plutôt qu'à celle de son mari
-Lorsque son mari meurt en 1755, Anna Morandi Manzolini enseigne à son tour, notamment pour assurer les ressources dont sa famille (elle a six enfants) a besoin. Elle devient professeur, membre de l'Université de Bologne en 1756 et succède à son mari à la chaire d'anatomie de cette université. Elle est élue à l'académie Clémentine (académie des beaux-arts de Bologne) en 1758. Sa renommée va au delà des limites de sa cité et elle est également élue en 1761 à l'académie du dessin de Florence[2]. Son succès est d’autant plus remarquable que l’anatomie  était un métier réservé aux hommes, et que sa pratique et sa position d'enseignant en ce domaine faisaient exception[3]. Elle est invitée dans plusieurs villes, et par plusieurs souverains, notamment à Londres et à Saint-Pétersbourg, mais n'aime pas voyager et se fait pardonner ses refus de ces invitations en y transmettant quelques-unes de ses sculptures[2].
-Elle meurt en 1774[2],[5]. Deux ans après sa mort, le Sénat de Bologne rachète les sculptures anatomiques qu'elle possède pour les confier au musée de l'Université de la ville[2],[5]. Le cratère vénusien Manzolini a été nommé en son honneur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anna Morandi, de son nom de naissance, est née à Bologne en 1714. En 1740, elle épouse Giovanni Manzolini, anatomiste et professeur d'anatomie à l'université de Bologne. Elle assiste son mari en pratiquant des dissections, apprend l'anatomie et aide son conjoint, un temps assistant d'Ercole Lelli, dans la réalisation de sculptures anatomiques en cire, utilisées notamment dans l'enseignement,. Ses réalisations en cire sont remarquées pour leur précision et leurs qualités plastiques. Elle publie un ouvrage sur ses notes anatomiques, et apporte quelques précisions aux connaissances de ses pairs : on lui doit par exemple la détermination du point d'insertion du muscle oblique de l'œil. Elle réalise également des bustes en cire à des fins purement artistiques. Deux de ces bustes sont exposées au Palazzo Poggi de Bologne : l'un est un autoportrait où l'on peut la voir en train de disséquer un cerveau humain ; l'autre représente son mari qui dissèque un cœur. Le portrait d'un homme en cire colorée, qui se trouve actuellement au Victoria and Albert Museum de Londres, est également considéré comme étant à sa manière plutôt qu'à celle de son mari
+Lorsque son mari meurt en 1755, Anna Morandi Manzolini enseigne à son tour, notamment pour assurer les ressources dont sa famille (elle a six enfants) a besoin. Elle devient professeur, membre de l'Université de Bologne en 1756 et succède à son mari à la chaire d'anatomie de cette université. Elle est élue à l'académie Clémentine (académie des beaux-arts de Bologne) en 1758. Sa renommée va au delà des limites de sa cité et elle est également élue en 1761 à l'académie du dessin de Florence. Son succès est d’autant plus remarquable que l’anatomie  était un métier réservé aux hommes, et que sa pratique et sa position d'enseignant en ce domaine faisaient exception. Elle est invitée dans plusieurs villes, et par plusieurs souverains, notamment à Londres et à Saint-Pétersbourg, mais n'aime pas voyager et se fait pardonner ses refus de ces invitations en y transmettant quelques-unes de ses sculptures.
+Elle meurt en 1774,. Deux ans après sa mort, le Sénat de Bologne rachète les sculptures anatomiques qu'elle possède pour les confier au musée de l'Université de la ville,. Le cratère vénusien Manzolini a été nommé en son honneur.
 </t>
         </is>
       </c>
